--- a/backlog-product.xlsx
+++ b/backlog-product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaval\OneDrive\Bureau\auto_formation_web_dev\gm-helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6768BE-B4D0-40A1-8A8F-A1835CE99E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9736E4-5CE6-40CC-8D7E-DE752816FABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12210" yWindow="3615" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Backlog</t>
   </si>
@@ -83,15 +83,6 @@
     <t>CRUD user</t>
   </si>
   <si>
-    <t>CRUD races</t>
-  </si>
-  <si>
-    <t>CRUD classes</t>
-  </si>
-  <si>
-    <t>CRUD monstres</t>
-  </si>
-  <si>
     <t>login/register back</t>
   </si>
   <si>
@@ -110,13 +101,25 @@
     <t>definition des spec</t>
   </si>
   <si>
-    <t>CRUD pet</t>
-  </si>
-  <si>
-    <t>CRUD table</t>
-  </si>
-  <si>
-    <t>CRUD charater</t>
+    <t>CRUD group</t>
+  </si>
+  <si>
+    <t>CRUD fight</t>
+  </si>
+  <si>
+    <t>CRUD character</t>
+  </si>
+  <si>
+    <t>CRUD pnj</t>
+  </si>
+  <si>
+    <t>CRUD race</t>
+  </si>
+  <si>
+    <t>CRUD category</t>
+  </si>
+  <si>
+    <t>CRUD classe</t>
   </si>
 </sst>
 </file>
@@ -365,10 +368,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56F91179-FCD9-4249-BA14-B66B1B44FEE3}" name="Tasks" displayName="Tasks" ref="B2:G67" totalsRowShown="0">
-  <autoFilter ref="B2:G67" xr:uid="{56F91179-FCD9-4249-BA14-B66B1B44FEE3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G28">
-    <sortCondition ref="G2:G28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56F91179-FCD9-4249-BA14-B66B1B44FEE3}" name="Tasks" displayName="Tasks" ref="B2:G68" totalsRowShown="0">
+  <autoFilter ref="B2:G68" xr:uid="{56F91179-FCD9-4249-BA14-B66B1B44FEE3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G29">
+    <sortCondition ref="G2:G29"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C0E099EC-72AE-422C-B4A9-8683873C2D14}" name="MY TASKS" dataCellStyle="Table Text"/>
@@ -652,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G67"/>
+  <dimension ref="B1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +708,7 @@
     </row>
     <row r="3" spans="2:7" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="15">
         <v>44898</v>
@@ -768,7 +771,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="7">
@@ -809,7 +812,7 @@
     </row>
     <row r="9" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -837,7 +840,7 @@
     </row>
     <row r="11" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -851,7 +854,7 @@
     </row>
     <row r="12" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -865,7 +868,7 @@
     </row>
     <row r="13" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -879,7 +882,7 @@
     </row>
     <row r="14" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -893,7 +896,7 @@
     </row>
     <row r="15" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -907,68 +910,93 @@
     </row>
     <row r="16" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
       <c r="F16" s="16">
         <f>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="13">
         <v>0</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="7">
-        <v>3</v>
+      <c r="F17" s="16">
+        <f>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
-        <v>22</v>
+      <c r="B19" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>21</v>
+      <c r="B20" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="13"/>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
       <c r="F21" s="11"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
@@ -1079,10 +1107,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="11">
-        <f>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="F35" s="11"/>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,8 +1462,19 @@
       </c>
       <c r="G67" s="7"/>
     </row>
+    <row r="68" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="11">
+        <f>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="7"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:E67">
+  <conditionalFormatting sqref="E3:E68">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1453,7 +1489,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E4:E67" xr:uid="{EFD900CE-21C6-4817-844B-05819552F11C}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E4:E68" xr:uid="{EFD900CE-21C6-4817-844B-05819552F11C}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Provide notes for each task in this column" sqref="G2:G3" xr:uid="{5931D921-BD95-4A82-BDE9-D644FF3AD63B}"/>
@@ -1486,7 +1522,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E3:E67</xm:sqref>
+          <xm:sqref>E3:E68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{D1192625-AED0-416A-95E6-6BCAEB580362}">
@@ -1505,7 +1541,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F3:F67</xm:sqref>
+          <xm:sqref>F3:F68</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
